--- a/BackTest/2019-10-14 BackTest BAT.xlsx
+++ b/BackTest/2019-10-14 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>13</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L12" t="n">
         <v>239.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L13" t="n">
         <v>239.7</v>
       </c>
